--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1507210.449939616</v>
+        <v>1467247.167000422</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.975891446</v>
+        <v>426806.9758914466</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.488478713</v>
+        <v>8362709.488478707</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8336999.582738055</v>
+        <v>8336999.582738053</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>202.2946864288974</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776592</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776592</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776592</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
     </row>
     <row r="3">
@@ -737,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>171.005786746918</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
     </row>
     <row r="4">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>72.47049842454874</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -940,31 +940,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>90.85039785074881</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,16 +1025,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>41.08624349890292</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,19 +1144,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>241.0142888776591</v>
+        <v>72.47049842454879</v>
       </c>
       <c r="G8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,16 +1180,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>232.8330857361503</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>124.4376380720372</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,16 +1223,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,16 +1262,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>236.3279050057466</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>414.005789270132</v>
@@ -1420,13 +1420,13 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>234.1203612787967</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1454,7 +1454,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>100.8367104035704</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>42.31419140370699</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
         <v>197.3677099213027</v>
@@ -1572,25 +1572,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.44704598407325</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>183.4401280146811</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>47.23959131629395</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>229.4885207278377</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>319.5701514999872</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>61.40230948893554</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
         <v>197.3677099213027</v>
@@ -1773,13 +1773,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8779974765521</v>
+        <v>120.9219958039491</v>
       </c>
       <c r="T16" t="n">
-        <v>220.8871739987542</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>249.0837676362702</v>
       </c>
       <c r="I17" t="n">
         <v>160.4752923549255</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>28.3617306116649</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1931,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>148.1615594037705</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>65.50479675552442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.8957288909827</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>42.65321760838909</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>119.7809561473941</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,25 +2083,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>95.95727993244864</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>105.3254933779794</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>52.1829371375707</v>
       </c>
       <c r="G21" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
         <v>197.3677099213027</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>100.5518216163725</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.4092130247883</v>
+        <v>47.47529300550337</v>
       </c>
       <c r="H22" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>261.4362790293001</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2329,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>162.7568429776632</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>160.3464122475373</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2411,13 +2411,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>43.76331341951682</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>59.19197445244095</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.90328094029398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
-        <v>63.1238702700172</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>104.8547783842727</v>
       </c>
     </row>
     <row r="27">
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H27" t="n">
-        <v>0.4026817847173583</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>57.07339698405355</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
         <v>197.3677099213027</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
-        <v>111.0308288438515</v>
+        <v>13.08993799274016</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
-        <v>67.76469830688252</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>14.98262955504962</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2888,10 +2888,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>92.23683576037105</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8957288909827</v>
+        <v>190.0828506192233</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>115.17793630079</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>85.73493885277898</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
-        <v>235.4998331041066</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S32" t="n">
-        <v>179.4658614532381</v>
+        <v>152.2472125541023</v>
       </c>
       <c r="T32" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3122,10 +3122,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
         <v>43.76331341951682</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3231,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407326</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>171.6084701021959</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>166.3533766280964</v>
       </c>
     </row>
     <row r="35">
@@ -3277,13 +3277,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>10.70346231659729</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>68.39969274597631</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
         <v>217.4184586216305</v>
@@ -3325,16 +3325,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>159.1378344580955</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3347,7 +3347,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>171.5399637926868</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -3365,7 +3365,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>17.44731957864654</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
         <v>197.3677099213027</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>74.15307578127776</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>225.4598605480533</v>
+        <v>31.28680070732923</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3508,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>95.35954310025301</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>81.49343596444007</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U38" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>43.75153736609984</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3641,7 +3641,7 @@
         <v>225.8957288909827</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>228.1037416073465</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>141.605924235581</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>146.5623749521073</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,19 +3742,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>127.6570108926884</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>90.90094654150569</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3824,7 +3824,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>85.67482303850645</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -3833,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>125.7035822286312</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.07339698405354</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S42" t="n">
         <v>158.7937537960548</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.6083922467224</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>47.47529300550314</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>58.28272660856686</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>68.3996927459763</v>
+        <v>55.31582904676879</v>
       </c>
       <c r="S44" t="n">
         <v>179.4658614532381</v>
@@ -4033,16 +4033,16 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>67.50465687964521</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>197.3677099213027</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8957288909827</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>46.59719675730217</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H46" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>65.43045686770236</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>710.5167634983095</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984131</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984131</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984131</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543129</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021274</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021274</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021274</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
         <v>122.2961490211351</v>
@@ -4348,34 +4348,34 @@
         <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424096</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424096</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424096</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424096</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424096</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424096</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424096</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X2" t="n">
-        <v>710.5167634983095</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y2" t="n">
-        <v>710.5167634983095</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192.0142610363926</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021274</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021274</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021274</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021274</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021274</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021274</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021274</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M3" t="n">
-        <v>473.4149733950738</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N3" t="n">
-        <v>712.0191193839564</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O3" t="n">
-        <v>712.0191193839564</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973073</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106367</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613056</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200715</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564606</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>360.2295980564606</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>360.2295980564606</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>360.2295980564606</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y3" t="n">
-        <v>360.2295980564606</v>
+        <v>817.1412885554689</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021274</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021274</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021274</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021274</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021274</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021274</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021274</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021274</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021274</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021274</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>46.59526811792571</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014789</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
         <v>129.4741569655842</v>
@@ -4509,31 +4509,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021274</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021274</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021274</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021274</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021274</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021274</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C5" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D5" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E5" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F5" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>812.6742080953335</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U5" t="n">
-        <v>569.2254314512334</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V5" t="n">
-        <v>569.2254314512334</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W5" t="n">
-        <v>569.2254314512334</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X5" t="n">
-        <v>569.2254314512334</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y5" t="n">
-        <v>569.2254314512334</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>479.7536884346249</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="C6" t="n">
-        <v>305.3006591534979</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="D6" t="n">
-        <v>305.3006591534979</v>
+        <v>271.040809405574</v>
       </c>
       <c r="E6" t="n">
-        <v>305.3006591534979</v>
+        <v>111.8033544001185</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>111.8033544001185</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>111.8033544001185</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N6" t="n">
-        <v>496.4894350879777</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>647.9690254546929</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>647.9690254546929</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V6" t="n">
-        <v>647.9690254546929</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W6" t="n">
-        <v>647.9690254546929</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X6" t="n">
-        <v>647.9690254546929</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y6" t="n">
-        <v>647.9690254546929</v>
+        <v>419.9752190668252</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>718.7806050553886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="C8" t="n">
-        <v>718.7806050553886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="D8" t="n">
-        <v>718.7806050553886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="E8" t="n">
-        <v>718.7806050553886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="G8" t="n">
-        <v>231.8830517671884</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4828,28 +4828,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>718.7806050553886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="V8" t="n">
-        <v>718.7806050553886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
-        <v>718.7806050553886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="X8" t="n">
-        <v>718.7806050553886</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="Y8" t="n">
-        <v>718.7806050553886</v>
+        <v>591.4512093066566</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>508.9694238887622</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="C9" t="n">
-        <v>508.9694238887622</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="D9" t="n">
-        <v>508.9694238887622</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O9" t="n">
-        <v>894.6625969973069</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>634.6640077999109</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>634.6640077999109</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>634.6640077999109</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="X9" t="n">
-        <v>634.6640077999109</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="Y9" t="n">
-        <v>634.6640077999109</v>
+        <v>23.90796037760316</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y10" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1369.576882096602</v>
+        <v>1344.379229905239</v>
       </c>
       <c r="C11" t="n">
-        <v>1369.576882096602</v>
+        <v>1344.379229905239</v>
       </c>
       <c r="D11" t="n">
-        <v>1369.576882096602</v>
+        <v>1344.379229905239</v>
       </c>
       <c r="E11" t="n">
-        <v>1369.576882096602</v>
+        <v>958.5909773069948</v>
       </c>
       <c r="F11" t="n">
         <v>958.5909773069948</v>
@@ -5041,13 +5041,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K11" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5068,25 +5068,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S11" t="n">
-        <v>2371.897027894854</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T11" t="n">
-        <v>2371.897027894854</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U11" t="n">
-        <v>2371.897027894854</v>
+        <v>1734.518561881051</v>
       </c>
       <c r="V11" t="n">
-        <v>2371.897027894854</v>
+        <v>1734.518561881051</v>
       </c>
       <c r="W11" t="n">
-        <v>2371.897027894854</v>
+        <v>1734.518561881051</v>
       </c>
       <c r="X11" t="n">
-        <v>1998.431269633774</v>
+        <v>1734.518561881051</v>
       </c>
       <c r="Y11" t="n">
-        <v>1608.291937657963</v>
+        <v>1344.379229905239</v>
       </c>
     </row>
     <row r="12">
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>839.8406951725675</v>
+        <v>779.8344674874215</v>
       </c>
       <c r="C12" t="n">
-        <v>665.3876658914405</v>
+        <v>605.3814382062945</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3876658914405</v>
+        <v>456.4470285450433</v>
       </c>
       <c r="E12" t="n">
-        <v>506.150210885985</v>
+        <v>297.2095735395878</v>
       </c>
       <c r="F12" t="n">
-        <v>359.6156529128699</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>150.6750155664728</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
@@ -5135,37 +5135,37 @@
         <v>1746.002248079784</v>
       </c>
       <c r="O12" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S12" t="n">
-        <v>2340.596123206183</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T12" t="n">
-        <v>2141.234800053352</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U12" t="n">
-        <v>1913.057296123066</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V12" t="n">
-        <v>1677.905187891324</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W12" t="n">
-        <v>1423.667831163122</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X12" t="n">
-        <v>1215.816330957589</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y12" t="n">
-        <v>1008.056032192635</v>
+        <v>948.0498045074896</v>
       </c>
     </row>
     <row r="13">
@@ -5220,22 +5220,22 @@
         <v>640.6381696807582</v>
       </c>
       <c r="Q13" t="n">
-        <v>602.8128707069468</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R13" t="n">
-        <v>450.1511924226979</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S13" t="n">
-        <v>234.1128111332513</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T13" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U13" t="n">
-        <v>48.81975253256327</v>
+        <v>592.9214107754108</v>
       </c>
       <c r="V13" t="n">
-        <v>48.81975253256327</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W13" t="n">
         <v>48.81975253256327</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1219.175958566481</v>
+        <v>1533.346912468206</v>
       </c>
       <c r="C14" t="n">
-        <v>1219.175958566481</v>
+        <v>1533.346912468206</v>
       </c>
       <c r="D14" t="n">
-        <v>860.9102599597302</v>
+        <v>1175.081213861455</v>
       </c>
       <c r="E14" t="n">
-        <v>629.1036733659547</v>
+        <v>789.2929612632108</v>
       </c>
       <c r="F14" t="n">
-        <v>629.1036733659547</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="G14" t="n">
-        <v>210.9160074365284</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5281,10 +5281,10 @@
         <v>145.9660485697318</v>
       </c>
       <c r="K14" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5302,28 +5302,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R14" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T14" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U14" t="n">
-        <v>1936.838685974173</v>
+        <v>2187.207932640046</v>
       </c>
       <c r="V14" t="n">
-        <v>1605.775798630602</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="W14" t="n">
-        <v>1605.775798630602</v>
+        <v>1856.145045296475</v>
       </c>
       <c r="X14" t="n">
-        <v>1605.775798630602</v>
+        <v>1533.346912468206</v>
       </c>
       <c r="Y14" t="n">
-        <v>1605.775798630602</v>
+        <v>1533.346912468206</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M15" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O15" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
@@ -5384,25 +5384,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2183.976407531844</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>1955.798903601558</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1720.646795369816</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1466.409438641614</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1258.557938436081</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>1050.797639671127</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="C16" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="D16" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="E16" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F16" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G16" t="n">
         <v>48.81975253256327</v>
@@ -5445,43 +5445,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M16" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N16" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O16" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q16" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R16" t="n">
-        <v>487.9764913965091</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S16" t="n">
-        <v>271.9381101070625</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="T16" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="U16" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="V16" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="W16" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="X16" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
       <c r="Y16" t="n">
-        <v>48.81975253256327</v>
+        <v>365.8330612915103</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>909.3658283179802</v>
+        <v>1649.955042051474</v>
       </c>
       <c r="C17" t="n">
-        <v>540.4033113775685</v>
+        <v>1649.955042051474</v>
       </c>
       <c r="D17" t="n">
-        <v>540.4033113775685</v>
+        <v>1291.689343444724</v>
       </c>
       <c r="E17" t="n">
-        <v>540.4033113775685</v>
+        <v>1291.689343444724</v>
       </c>
       <c r="F17" t="n">
-        <v>540.4033113775685</v>
+        <v>880.7034386551165</v>
       </c>
       <c r="G17" t="n">
-        <v>540.4033113775685</v>
+        <v>462.5157727256903</v>
       </c>
       <c r="H17" t="n">
         <v>210.9160074365284</v>
@@ -5515,19 +5515,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J17" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K17" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N17" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O17" t="n">
         <v>2037.925350935285</v>
@@ -5542,25 +5542,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T17" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U17" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V17" t="n">
-        <v>2412.339413889108</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="W17" t="n">
-        <v>2059.570758618994</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="X17" t="n">
-        <v>1686.105000357914</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="Y17" t="n">
-        <v>1295.965668382102</v>
+        <v>1649.955042051474</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>722.1845715439331</v>
+        <v>979.1957906402527</v>
       </c>
       <c r="C18" t="n">
-        <v>547.7315422628061</v>
+        <v>804.7427613591257</v>
       </c>
       <c r="D18" t="n">
-        <v>398.7971326015548</v>
+        <v>655.8083516978744</v>
       </c>
       <c r="E18" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F18" t="n">
-        <v>93.02511962298431</v>
+        <v>359.61565291287</v>
       </c>
       <c r="G18" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620316</v>
       </c>
       <c r="H18" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017799</v>
       </c>
       <c r="I18" t="n">
         <v>48.81975253256327</v>
@@ -5597,49 +5597,49 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K18" t="n">
-        <v>161.1406371339193</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L18" t="n">
-        <v>540.2677802593125</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M18" t="n">
-        <v>1034.670495654875</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N18" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O18" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R18" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S18" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T18" t="n">
-        <v>2023.578676424718</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="U18" t="n">
-        <v>1795.401172494432</v>
+        <v>2052.412391590752</v>
       </c>
       <c r="V18" t="n">
-        <v>1560.249064262689</v>
+        <v>1817.260283359009</v>
       </c>
       <c r="W18" t="n">
-        <v>1306.011707534488</v>
+        <v>1563.022926630807</v>
       </c>
       <c r="X18" t="n">
-        <v>1098.160207328955</v>
+        <v>1355.171426425275</v>
       </c>
       <c r="Y18" t="n">
-        <v>890.3999085640012</v>
+        <v>1147.411127660321</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="C19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="H19" t="n">
-        <v>48.81975253256327</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345759</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420813</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O19" t="n">
-        <v>573.6740222801511</v>
+        <v>573.6740222801509</v>
       </c>
       <c r="P19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="R19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="S19" t="n">
-        <v>640.6381696807582</v>
+        <v>640.6381696807579</v>
       </c>
       <c r="T19" t="n">
-        <v>640.6381696807582</v>
+        <v>412.9009368039364</v>
       </c>
       <c r="U19" t="n">
-        <v>351.4590821581505</v>
+        <v>369.8168786136443</v>
       </c>
       <c r="V19" t="n">
-        <v>351.4590821581505</v>
+        <v>369.8168786136443</v>
       </c>
       <c r="W19" t="n">
-        <v>351.4590821581505</v>
+        <v>369.8168786136443</v>
       </c>
       <c r="X19" t="n">
-        <v>230.468217362803</v>
+        <v>369.8168786136443</v>
       </c>
       <c r="Y19" t="n">
-        <v>230.468217362803</v>
+        <v>369.8168786136443</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>646.7926986280527</v>
+        <v>1333.185567244659</v>
       </c>
       <c r="C20" t="n">
-        <v>646.7926986280527</v>
+        <v>1236.259021858348</v>
       </c>
       <c r="D20" t="n">
-        <v>646.7926986280527</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E20" t="n">
-        <v>646.7926986280527</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F20" t="n">
-        <v>646.7926986280527</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G20" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H20" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K20" t="n">
         <v>412.3079679977591</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
       </c>
       <c r="N20" t="n">
-        <v>1672.394424063531</v>
+        <v>1672.39442406353</v>
       </c>
       <c r="O20" t="n">
         <v>2037.925350935285</v>
@@ -5776,28 +5776,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R20" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S20" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T20" t="n">
-        <v>1971.003775293977</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="U20" t="n">
-        <v>1717.224081305859</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="V20" t="n">
-        <v>1386.161193962289</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="W20" t="n">
-        <v>1033.392538692174</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="X20" t="n">
-        <v>1033.392538692174</v>
+        <v>2109.924739284593</v>
       </c>
       <c r="Y20" t="n">
-        <v>1033.392538692174</v>
+        <v>1719.785407308781</v>
       </c>
     </row>
     <row r="21">
@@ -5807,49 +5807,49 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C21" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D21" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E21" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F21" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G21" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H21" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J21" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L21" t="n">
-        <v>728.4044351658747</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N21" t="n">
-        <v>1746.002248079783</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O21" t="n">
-        <v>2158.207869599012</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P21" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5858,25 +5858,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S21" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2183.976407531844</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U21" t="n">
-        <v>1955.798903601558</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V21" t="n">
-        <v>1720.646795369816</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W21" t="n">
-        <v>1466.409438641614</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X21" t="n">
-        <v>1258.557938436081</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>376.5611201562124</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="C22" t="n">
-        <v>376.5611201562124</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="D22" t="n">
-        <v>376.5611201562124</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="E22" t="n">
-        <v>376.5611201562124</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="F22" t="n">
-        <v>376.5611201562124</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="G22" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
         <v>48.81975253256327</v>
@@ -5919,43 +5919,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O22" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U22" t="n">
-        <v>376.5611201562124</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V22" t="n">
-        <v>376.5611201562124</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W22" t="n">
-        <v>376.5611201562124</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="X22" t="n">
-        <v>376.5611201562124</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="Y22" t="n">
-        <v>376.5611201562124</v>
+        <v>96.77459395226364</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>776.0479680797255</v>
+        <v>1680.922028302962</v>
       </c>
       <c r="C23" t="n">
-        <v>407.0854511393138</v>
+        <v>1311.95951136255</v>
       </c>
       <c r="D23" t="n">
-        <v>48.81975253256327</v>
+        <v>953.6938127557999</v>
       </c>
       <c r="E23" t="n">
-        <v>48.81975253256327</v>
+        <v>953.6938127557999</v>
       </c>
       <c r="F23" t="n">
-        <v>48.81975253256327</v>
+        <v>542.7079079661924</v>
       </c>
       <c r="G23" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H23" t="n">
         <v>48.81975253256327</v>
@@ -5995,7 +5995,7 @@
         <v>412.307967997759</v>
       </c>
       <c r="L23" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M23" t="n">
         <v>1237.436361307048</v>
@@ -6025,16 +6025,16 @@
         <v>2440.987626628164</v>
       </c>
       <c r="V23" t="n">
-        <v>2279.021553650853</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="W23" t="n">
-        <v>1926.252898380739</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="X23" t="n">
-        <v>1552.787140119659</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y23" t="n">
-        <v>1162.647808143847</v>
+        <v>2067.521868367084</v>
       </c>
     </row>
     <row r="24">
@@ -6059,10 +6059,10 @@
         <v>93.02511962298431</v>
       </c>
       <c r="G24" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H24" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="I24" t="n">
         <v>48.81975253256327</v>
@@ -6083,10 +6083,10 @@
         <v>1681.835959361802</v>
       </c>
       <c r="O24" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q24" t="n">
         <v>2440.987626628164</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.81975253256327</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="C25" t="n">
-        <v>48.81975253256327</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="D25" t="n">
-        <v>48.81975253256327</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="E25" t="n">
-        <v>48.81975253256327</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="F25" t="n">
-        <v>48.81975253256327</v>
+        <v>277.709840893401</v>
       </c>
       <c r="G25" t="n">
-        <v>48.81975253256327</v>
+        <v>108.6096257168471</v>
       </c>
       <c r="H25" t="n">
-        <v>48.81975253256327</v>
+        <v>108.6096257168471</v>
       </c>
       <c r="I25" t="n">
         <v>48.81975253256327</v>
@@ -6174,25 +6174,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S25" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T25" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="U25" t="n">
-        <v>351.4590821581503</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="V25" t="n">
-        <v>351.4590821581503</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="W25" t="n">
-        <v>351.4590821581503</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="X25" t="n">
-        <v>123.469531260133</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="Y25" t="n">
-        <v>48.81975253256327</v>
+        <v>424.5997883913113</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>459.8056573221708</v>
+        <v>417.782269472975</v>
       </c>
       <c r="C26" t="n">
-        <v>459.8056573221708</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D26" t="n">
-        <v>459.8056573221708</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E26" t="n">
-        <v>459.8056573221708</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F26" t="n">
         <v>48.81975253256327</v>
@@ -6226,13 +6226,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K26" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6250,28 +6250,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R26" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S26" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>1971.003775293977</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U26" t="n">
-        <v>1907.242290172747</v>
+        <v>1967.593327971733</v>
       </c>
       <c r="V26" t="n">
-        <v>1576.179402829177</v>
+        <v>1636.530440628162</v>
       </c>
       <c r="W26" t="n">
-        <v>1223.410747559062</v>
+        <v>1283.761785358048</v>
       </c>
       <c r="X26" t="n">
-        <v>849.9449892979826</v>
+        <v>910.2960270969681</v>
       </c>
       <c r="Y26" t="n">
-        <v>459.8056573221708</v>
+        <v>804.3821095370968</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>882.5823026510593</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C27" t="n">
-        <v>708.1292733699323</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D27" t="n">
-        <v>559.1948637086811</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E27" t="n">
-        <v>399.9574087032256</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F27" t="n">
-        <v>253.4228507301105</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G27" t="n">
-        <v>115.3929631792721</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H27" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256327</v>
@@ -6314,16 +6314,16 @@
         <v>728.4044351658747</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N27" t="n">
-        <v>1746.002248079783</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O27" t="n">
-        <v>2158.207869599012</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P27" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
@@ -6332,25 +6332,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S27" t="n">
-        <v>2383.337730684675</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T27" t="n">
-        <v>2183.976407531844</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U27" t="n">
-        <v>1955.798903601558</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V27" t="n">
-        <v>1720.646795369816</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W27" t="n">
-        <v>1466.409438641614</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X27" t="n">
-        <v>1258.557938436081</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y27" t="n">
-        <v>1050.797639671127</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="28">
@@ -6405,22 +6405,22 @@
         <v>640.638169680758</v>
       </c>
       <c r="Q28" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R28" t="n">
-        <v>450.1511924226977</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S28" t="n">
-        <v>450.1511924226977</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T28" t="n">
-        <v>450.1511924226977</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U28" t="n">
-        <v>160.97210490009</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V28" t="n">
-        <v>48.81975253256327</v>
+        <v>338.2369225695239</v>
       </c>
       <c r="W28" t="n">
         <v>48.81975253256327</v>
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1108.538768364534</v>
+        <v>1580.023886607396</v>
       </c>
       <c r="C29" t="n">
-        <v>1108.538768364534</v>
+        <v>1211.061369666984</v>
       </c>
       <c r="D29" t="n">
-        <v>1108.538768364534</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E29" t="n">
-        <v>1108.538768364534</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F29" t="n">
-        <v>697.552863574927</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G29" t="n">
-        <v>279.3651976455007</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H29" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I29" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K29" t="n">
         <v>412.307967997759</v>
@@ -6481,34 +6481,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P29" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q29" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="T29" t="n">
-        <v>2221.37302195985</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="U29" t="n">
-        <v>2221.37302195985</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="V29" t="n">
-        <v>2221.37302195985</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="W29" t="n">
-        <v>1868.604366689736</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="X29" t="n">
-        <v>1495.138608428656</v>
+        <v>2356.76305864733</v>
       </c>
       <c r="Y29" t="n">
-        <v>1495.138608428656</v>
+        <v>1966.623726671518</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.7751048338188</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C30" t="n">
-        <v>814.3220755526918</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D30" t="n">
-        <v>665.3876658914405</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E30" t="n">
-        <v>506.150210885985</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F30" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G30" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H30" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I30" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K30" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L30" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M30" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N30" t="n">
-        <v>1746.002248079783</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O30" t="n">
-        <v>2158.207869599012</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P30" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S30" t="n">
-        <v>2290.169209714603</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T30" t="n">
-        <v>2290.169209714603</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U30" t="n">
-        <v>2061.991705784318</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.839597552575</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W30" t="n">
-        <v>1572.602240824373</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X30" t="n">
-        <v>1364.750740618841</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.990441853887</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>165.161102331341</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C31" t="n">
-        <v>165.161102331341</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D31" t="n">
-        <v>165.161102331341</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E31" t="n">
-        <v>165.161102331341</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F31" t="n">
-        <v>165.161102331341</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G31" t="n">
-        <v>165.161102331341</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H31" t="n">
         <v>48.81975253256327</v>
@@ -6648,25 +6648,25 @@
         <v>640.638169680758</v>
       </c>
       <c r="S31" t="n">
-        <v>640.638169680758</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T31" t="n">
-        <v>640.638169680758</v>
+        <v>337.9988400551709</v>
       </c>
       <c r="U31" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="V31" t="n">
-        <v>385.9536814748711</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W31" t="n">
-        <v>385.9536814748711</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X31" t="n">
-        <v>385.9536814748711</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y31" t="n">
-        <v>165.161102331341</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1399.714839975047</v>
+        <v>1221.758188000646</v>
       </c>
       <c r="C32" t="n">
-        <v>1030.752323034635</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="D32" t="n">
-        <v>672.4866244278849</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E32" t="n">
-        <v>286.6983718296406</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F32" t="n">
-        <v>286.6983718296406</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G32" t="n">
-        <v>286.6983718296406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H32" t="n">
         <v>48.81975253256327</v>
@@ -6700,13 +6700,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697319</v>
       </c>
       <c r="K32" t="n">
-        <v>412.3079679977591</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L32" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M32" t="n">
         <v>1237.436361307048</v>
@@ -6718,34 +6718,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P32" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q32" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R32" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S32" t="n">
-        <v>2259.7089786956</v>
+        <v>2218.111964708893</v>
       </c>
       <c r="T32" t="n">
-        <v>2040.094374027286</v>
+        <v>1998.497360040579</v>
       </c>
       <c r="U32" t="n">
-        <v>1786.314680039169</v>
+        <v>1998.497360040579</v>
       </c>
       <c r="V32" t="n">
-        <v>1786.314680039169</v>
+        <v>1998.497360040579</v>
       </c>
       <c r="W32" t="n">
-        <v>1786.314680039169</v>
+        <v>1998.497360040579</v>
       </c>
       <c r="X32" t="n">
-        <v>1786.314680039169</v>
+        <v>1998.497360040579</v>
       </c>
       <c r="Y32" t="n">
-        <v>1786.314680039169</v>
+        <v>1608.358028064767</v>
       </c>
     </row>
     <row r="33">
@@ -6770,7 +6770,7 @@
         <v>93.02511962298431</v>
       </c>
       <c r="G33" t="n">
-        <v>48.81975253256327</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H33" t="n">
         <v>48.81975253256327</v>
@@ -6779,25 +6779,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K33" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L33" t="n">
-        <v>728.4044351658747</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M33" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N33" t="n">
-        <v>1557.865593173221</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O33" t="n">
-        <v>1970.07121469245</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C34" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D34" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E34" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F34" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G34" t="n">
         <v>48.81975253256327</v>
@@ -6879,31 +6879,31 @@
         <v>640.638169680758</v>
       </c>
       <c r="Q34" t="n">
-        <v>602.8128707069466</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R34" t="n">
-        <v>450.1511924226977</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S34" t="n">
-        <v>276.8093034305806</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T34" t="n">
-        <v>276.8093034305806</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U34" t="n">
-        <v>276.8093034305806</v>
+        <v>640.638169680758</v>
       </c>
       <c r="V34" t="n">
-        <v>276.8093034305806</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="W34" t="n">
-        <v>276.8093034305806</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="X34" t="n">
-        <v>48.81975253256327</v>
+        <v>385.9536814748711</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1214.671186624739</v>
+        <v>792.873703737558</v>
       </c>
       <c r="C35" t="n">
-        <v>1214.671186624739</v>
+        <v>792.873703737558</v>
       </c>
       <c r="D35" t="n">
-        <v>856.4054880179881</v>
+        <v>434.6080051308075</v>
       </c>
       <c r="E35" t="n">
-        <v>470.6172354197438</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F35" t="n">
-        <v>59.63133063013629</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G35" t="n">
-        <v>59.63133063013629</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H35" t="n">
         <v>48.81975253256327</v>
@@ -6937,13 +6937,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J35" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M35" t="n">
         <v>1237.436361307048</v>
@@ -6964,25 +6964,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S35" t="n">
-        <v>2371.897027894854</v>
+        <v>2190.61837996229</v>
       </c>
       <c r="T35" t="n">
-        <v>2152.282423226541</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U35" t="n">
-        <v>1898.502729238423</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V35" t="n">
-        <v>1567.439841894853</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W35" t="n">
-        <v>1214.671186624739</v>
+        <v>1556.47879397445</v>
       </c>
       <c r="X35" t="n">
-        <v>1214.671186624739</v>
+        <v>1183.01303571337</v>
       </c>
       <c r="Y35" t="n">
-        <v>1214.671186624739</v>
+        <v>792.873703737558</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>922.6086434646021</v>
+        <v>987.5947662523754</v>
       </c>
       <c r="C36" t="n">
-        <v>748.1556141834751</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D36" t="n">
-        <v>599.2212045222238</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E36" t="n">
-        <v>439.9837495167684</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F36" t="n">
-        <v>293.4491915436533</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G36" t="n">
-        <v>155.4193039928149</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H36" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I36" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J36" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K36" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225003</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478935</v>
       </c>
       <c r="M36" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N36" t="n">
-        <v>1746.002248079783</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O36" t="n">
-        <v>2158.207869599012</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P36" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q36" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2423.364071498218</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S36" t="n">
-        <v>2423.364071498218</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T36" t="n">
-        <v>2224.002748345386</v>
+        <v>2081.228572368206</v>
       </c>
       <c r="U36" t="n">
-        <v>1995.825244415101</v>
+        <v>1853.051068437921</v>
       </c>
       <c r="V36" t="n">
-        <v>1760.673136183358</v>
+        <v>1617.898960206178</v>
       </c>
       <c r="W36" t="n">
-        <v>1506.435779455157</v>
+        <v>1363.661603477976</v>
       </c>
       <c r="X36" t="n">
-        <v>1298.584279249624</v>
+        <v>1155.810103272443</v>
       </c>
       <c r="Y36" t="n">
-        <v>1090.82398048467</v>
+        <v>1155.810103272443</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1924.071306228734</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="C37" t="n">
-        <v>1924.071306228734</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="D37" t="n">
-        <v>1849.169209479969</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="E37" t="n">
-        <v>1849.169209479969</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="F37" t="n">
-        <v>1849.169209479969</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="G37" t="n">
-        <v>1849.169209479969</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J37" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K37" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L37" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N37" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O37" t="n">
-        <v>2374.023479227556</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S37" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T37" t="n">
-        <v>2213.250393751342</v>
+        <v>609.0353406834557</v>
       </c>
       <c r="U37" t="n">
-        <v>1924.071306228734</v>
+        <v>609.0353406834557</v>
       </c>
       <c r="V37" t="n">
-        <v>1924.071306228734</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="W37" t="n">
-        <v>1924.071306228734</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="X37" t="n">
-        <v>1924.071306228734</v>
+        <v>354.3508524775689</v>
       </c>
       <c r="Y37" t="n">
-        <v>1924.071306228734</v>
+        <v>354.3508524775689</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>407.0854511393138</v>
+        <v>974.3160940599334</v>
       </c>
       <c r="C38" t="n">
-        <v>407.0854511393138</v>
+        <v>974.3160940599334</v>
       </c>
       <c r="D38" t="n">
-        <v>48.81975253256327</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E38" t="n">
-        <v>48.81975253256327</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F38" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G38" t="n">
         <v>48.81975253256327</v>
@@ -7174,16 +7174,16 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J38" t="n">
-        <v>145.9660485697323</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.3079679977595</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540051</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
-        <v>1237.436361307049</v>
+        <v>1237.436361307048</v>
       </c>
       <c r="N38" t="n">
         <v>1672.394424063531</v>
@@ -7204,22 +7204,22 @@
         <v>2190.61837996229</v>
       </c>
       <c r="T38" t="n">
-        <v>2108.301777978008</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U38" t="n">
-        <v>1854.52208398989</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="V38" t="n">
-        <v>1523.459196646319</v>
+        <v>1717.224081305859</v>
       </c>
       <c r="W38" t="n">
-        <v>1170.690541376205</v>
+        <v>1364.455426035745</v>
       </c>
       <c r="X38" t="n">
-        <v>797.2247831151255</v>
+        <v>1364.455426035745</v>
       </c>
       <c r="Y38" t="n">
-        <v>407.0854511393138</v>
+        <v>974.3160940599334</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>779.8344674874215</v>
+        <v>784.5787559137638</v>
       </c>
       <c r="C39" t="n">
-        <v>605.3814382062945</v>
+        <v>610.1257266326368</v>
       </c>
       <c r="D39" t="n">
-        <v>456.4470285450433</v>
+        <v>461.1913169713854</v>
       </c>
       <c r="E39" t="n">
-        <v>297.2095735395878</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F39" t="n">
-        <v>297.2095735395878</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G39" t="n">
-        <v>159.1796859887494</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H39" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K39" t="n">
-        <v>285.1110033225003</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L39" t="n">
-        <v>664.2381464478935</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N39" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O39" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
@@ -7289,16 +7289,16 @@
         <v>1853.051068437921</v>
       </c>
       <c r="V39" t="n">
-        <v>1617.898960206178</v>
+        <v>1622.64324863252</v>
       </c>
       <c r="W39" t="n">
-        <v>1363.661603477976</v>
+        <v>1368.405891904318</v>
       </c>
       <c r="X39" t="n">
-        <v>1155.810103272443</v>
+        <v>1160.554391698786</v>
       </c>
       <c r="Y39" t="n">
-        <v>948.0498045074896</v>
+        <v>952.7940929338317</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1849.169209479969</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="C40" t="n">
-        <v>1849.169209479969</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="D40" t="n">
-        <v>1849.169209479969</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="E40" t="n">
-        <v>1849.169209479969</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="F40" t="n">
-        <v>1849.169209479969</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="G40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J40" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K40" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L40" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N40" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O40" t="n">
-        <v>2374.023479227556</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R40" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S40" t="n">
-        <v>2440.987626628164</v>
+        <v>424.5997883913113</v>
       </c>
       <c r="T40" t="n">
-        <v>2440.987626628164</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="U40" t="n">
-        <v>2440.987626628164</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="V40" t="n">
-        <v>2440.987626628164</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="W40" t="n">
-        <v>2440.987626628164</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="X40" t="n">
-        <v>2212.998075730146</v>
+        <v>196.8625555144898</v>
       </c>
       <c r="Y40" t="n">
-        <v>1992.205496586616</v>
+        <v>196.8625555144898</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1161.83622067797</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="C41" t="n">
-        <v>792.873703737558</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="D41" t="n">
-        <v>434.6080051308075</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="E41" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F41" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G41" t="n">
         <v>48.81975253256327</v>
@@ -7411,19 +7411,19 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J41" t="n">
-        <v>145.9660485697318</v>
+        <v>145.9660485697323</v>
       </c>
       <c r="K41" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977595</v>
       </c>
       <c r="L41" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540051</v>
       </c>
       <c r="M41" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N41" t="n">
-        <v>1672.39442406353</v>
+        <v>1672.394424063531</v>
       </c>
       <c r="O41" t="n">
         <v>2037.925350935285</v>
@@ -7438,25 +7438,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S41" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T41" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U41" t="n">
-        <v>2440.987626628164</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V41" t="n">
-        <v>2312.041150978983</v>
+        <v>1709.031486683716</v>
       </c>
       <c r="W41" t="n">
-        <v>2312.041150978983</v>
+        <v>1617.212348763003</v>
       </c>
       <c r="X41" t="n">
-        <v>1938.575392717903</v>
+        <v>1243.746590501923</v>
       </c>
       <c r="Y41" t="n">
-        <v>1548.436060742092</v>
+        <v>853.6072585261113</v>
       </c>
     </row>
     <row r="42">
@@ -7472,43 +7472,43 @@
         <v>547.7315422628061</v>
       </c>
       <c r="D42" t="n">
-        <v>547.7315422628061</v>
+        <v>461.1913169713854</v>
       </c>
       <c r="E42" t="n">
-        <v>388.4940872573506</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F42" t="n">
-        <v>241.9595292842356</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G42" t="n">
-        <v>114.9862139017798</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838828</v>
       </c>
       <c r="K42" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883253</v>
       </c>
       <c r="L42" t="n">
-        <v>728.4044351658748</v>
+        <v>697.3559079137186</v>
       </c>
       <c r="M42" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N42" t="n">
-        <v>1746.002248079784</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O42" t="n">
-        <v>2158.207869599013</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.899498973758</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J43" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K43" t="n">
-        <v>1894.037176271117</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L43" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M43" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345758</v>
       </c>
       <c r="N43" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420812</v>
       </c>
       <c r="O43" t="n">
-        <v>2374.023479227556</v>
+        <v>573.674022280151</v>
       </c>
       <c r="P43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="Q43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="R43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="S43" t="n">
-        <v>2440.987626628164</v>
+        <v>640.638169680758</v>
       </c>
       <c r="T43" t="n">
-        <v>2213.250393751342</v>
+        <v>640.638169680758</v>
       </c>
       <c r="U43" t="n">
-        <v>2030.817674310208</v>
+        <v>351.4590821581503</v>
       </c>
       <c r="V43" t="n">
-        <v>2030.817674310208</v>
+        <v>96.77459395226342</v>
       </c>
       <c r="W43" t="n">
-        <v>2030.817674310208</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X43" t="n">
-        <v>2030.817674310208</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y43" t="n">
-        <v>2030.817674310208</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>210.9160074365284</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="C44" t="n">
-        <v>210.9160074365284</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="D44" t="n">
-        <v>210.9160074365284</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="E44" t="n">
-        <v>210.9160074365284</v>
+        <v>1207.480627192637</v>
       </c>
       <c r="F44" t="n">
-        <v>210.9160074365284</v>
+        <v>796.4947224030295</v>
       </c>
       <c r="G44" t="n">
-        <v>210.9160074365284</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J44" t="n">
-        <v>145.9660485697315</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K44" t="n">
-        <v>412.3079679977586</v>
+        <v>412.307967997759</v>
       </c>
       <c r="L44" t="n">
-        <v>795.0052981540041</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M44" t="n">
         <v>1237.436361307048</v>
@@ -7672,28 +7672,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R44" t="n">
-        <v>2371.897027894854</v>
+        <v>2385.113051833448</v>
       </c>
       <c r="S44" t="n">
-        <v>2190.61837996229</v>
+        <v>2203.834403900884</v>
       </c>
       <c r="T44" t="n">
-        <v>1971.003775293977</v>
+        <v>1984.21979923257</v>
       </c>
       <c r="U44" t="n">
-        <v>1717.224081305859</v>
+        <v>1984.21979923257</v>
       </c>
       <c r="V44" t="n">
-        <v>1386.161193962289</v>
+        <v>1984.21979923257</v>
       </c>
       <c r="W44" t="n">
-        <v>1033.392538692174</v>
+        <v>1984.21979923257</v>
       </c>
       <c r="X44" t="n">
-        <v>659.9267804310946</v>
+        <v>1984.21979923257</v>
       </c>
       <c r="Y44" t="n">
-        <v>269.7874484552829</v>
+        <v>1594.080467256759</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439331</v>
+        <v>950.3620754742187</v>
       </c>
       <c r="C45" t="n">
-        <v>547.7315422628061</v>
+        <v>775.9090461930917</v>
       </c>
       <c r="D45" t="n">
-        <v>398.7971326015548</v>
+        <v>626.9746365318405</v>
       </c>
       <c r="E45" t="n">
-        <v>239.5596775960993</v>
+        <v>467.737181526385</v>
       </c>
       <c r="F45" t="n">
-        <v>93.02511962298431</v>
+        <v>321.20262355327</v>
       </c>
       <c r="G45" t="n">
-        <v>48.81975253256327</v>
+        <v>183.1727360024316</v>
       </c>
       <c r="H45" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J45" t="n">
-        <v>81.93751399838814</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K45" t="n">
-        <v>318.2287647883252</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L45" t="n">
-        <v>697.3559079137185</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M45" t="n">
-        <v>1191.758623309281</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N45" t="n">
-        <v>1714.953720827627</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P45" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q45" t="n">
         <v>2440.987626628164</v>
@@ -7760,19 +7760,19 @@
         <v>2023.578676424718</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494432</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1788.426568192975</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1534.189211464774</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1326.337711259241</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640012</v>
+        <v>1118.577412494287</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="C46" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="D46" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="E46" t="n">
-        <v>346.8095662305</v>
+        <v>264.9878432215436</v>
       </c>
       <c r="F46" t="n">
-        <v>346.8095662305</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G46" t="n">
-        <v>346.8095662305</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H46" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I46" t="n">
         <v>48.81975253256327</v>
@@ -7830,28 +7830,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>574.5467991073215</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S46" t="n">
-        <v>574.5467991073215</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T46" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="U46" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="V46" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="W46" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="X46" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
       <c r="Y46" t="n">
-        <v>346.8095662305</v>
+        <v>412.9009368039367</v>
       </c>
     </row>
   </sheetData>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714831</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9453110519926</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609924</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,10 +8534,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8549,10 +8549,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>203.8252941185856</v>
+        <v>362.5001705371775</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,7 +9017,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>74.42821185443489</v>
+        <v>233.103088273027</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725698</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9497,10 +9497,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>287.1006199003857</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>51.40241131725696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9731,13 +9731,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>268.6397271670517</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,7 +9962,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>275.6680385918564</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9971,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>287.1006199003857</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.40241131725696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10208,10 +10208,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>287.1006199003857</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>51.40241131725696</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>289.30534918541</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194304</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>354.1197822338756</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>287.1006199003857</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>51.40241131725696</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194304</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.85469562617106</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085718</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11156,10 +11156,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>128.4257434817933</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>51.40241131725696</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>94.72888660085704</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>51.40241131725695</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>146.4059366577339</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,10 +23266,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2418970482362</v>
+        <v>17.12153576943953</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23323,7 +23323,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23342,7 +23342,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>4.69684554207879</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
-        <v>116.4795623923478</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -23460,25 +23460,25 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T13" t="n">
-        <v>42.01973253337215</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2872966473816</v>
+        <v>239.0477053310876</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>152.4418493444241</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
         <v>217.4184586216305</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>50.16094917848187</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>105.1308741609318</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>157.0547409226243</v>
@@ -23697,16 +23697,16 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>92.95600167260305</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572686549299078</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U16" t="n">
         <v>286.2872966473816</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>77.10866326535935</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597632</v>
       </c>
       <c r="S17" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>299.39052785847</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23819,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>9.483521051630419</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23910,10 +23910,10 @@
         <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>52.22830032617343</v>
+        <v>52.22830032617344</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407327</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23943,10 +23943,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>243.6340790389925</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>105.9286992416431</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,25 +23971,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>269.3156118385589</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>308.6802958921526</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,7 +24098,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>105.1308741609318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,10 +24141,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>119.933920019285</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
         <v>137.955174638333</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
@@ -24183,10 +24183,10 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U22" t="n">
-        <v>24.85101761808153</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24217,13 +24217,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>251.2489462924688</v>
       </c>
       <c r="H23" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>160.4752923549255</v>
@@ -24265,16 +24265,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>167.4058462225976</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24299,13 +24299,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>92.88627525581317</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
         <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
-        <v>65.50479675552441</v>
+        <v>21.74148333600759</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
-        <v>137.955174638333</v>
+        <v>78.76320018589206</v>
       </c>
       <c r="J25" t="n">
         <v>52.22830032617343</v>
@@ -24414,13 +24414,13 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>225.4598605480533</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6813724118008</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -24454,7 +24454,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>414.005789270132</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>188.118026778219</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>281.3831602717809</v>
       </c>
     </row>
     <row r="27">
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H27" t="n">
-        <v>105.1308741609318</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24572,7 +24572,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -24645,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
         <v>213.8779974765521</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>141.1068144799765</v>
+        <v>239.0477053310879</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>258.4277325947471</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
         <v>251.2418970482362</v>
@@ -24742,13 +24742,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>354.7484711234194</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24776,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S30" t="n">
-        <v>66.55691803568372</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>35.81287827175942</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>41.87680462183432</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
         <v>137.955174638333</v>
@@ -24888,16 +24888,16 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S31" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>139.7249216952743</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>90.69259779752298</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I32" t="n">
         <v>160.4752923549255</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>27.21864889913587</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>92.88627525581317</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H33" t="n">
-        <v>105.5335559456492</v>
+        <v>61.77024252613235</v>
       </c>
       <c r="I33" t="n">
         <v>65.50479675552441</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>157.0547409226243</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>42.26952737435622</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T34" t="n">
         <v>225.4598605480533</v>
@@ -25134,16 +25134,16 @@
         <v>286.2872966473816</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>52.23127672399835</v>
       </c>
     </row>
     <row r="35">
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H35" t="n">
-        <v>315.4889685850323</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
         <v>160.4752923549255</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25213,16 +25213,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>190.1031342593175</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25235,7 +25235,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1.168535195628976</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.626077405407</v>
+        <v>57.07339698405355</v>
       </c>
       <c r="S36" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25317,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>74.46239723693459</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>137.955174638333</v>
@@ -25365,13 +25365,13 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>194.1730598407241</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25396,16 +25396,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>259.32349852043</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>135.9250226571904</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>61.78201857954933</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25529,7 +25529,7 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>4.696845542078734</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>38.2260559463563</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4092130247883</v>
+        <v>20.84683807268104</v>
       </c>
       <c r="H40" t="n">
         <v>157.0547409226243</v>
@@ -25599,10 +25599,10 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S40" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2872966473816</v>
@@ -25614,10 +25614,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,19 +25630,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>326.1924309016296</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>68.3996927459763</v>
+        <v>68.39969274597631</v>
       </c>
       <c r="S41" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V41" t="n">
-        <v>200.0952475774465</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>258.3400221759073</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25712,7 +25712,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>61.77024252613231</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -25721,13 +25721,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>10.94600644669883</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.44704598407325</v>
+        <v>37.44704598407326</v>
       </c>
       <c r="R43" t="n">
         <v>151.1350615014064</v>
@@ -25839,16 +25839,16 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U43" t="n">
-        <v>105.6789044006592</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>239.0477053310879</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>324.4511150549137</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25876,16 +25876,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>13.08386369920751</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -25921,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>38.02889906600396</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8957288909827</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>98.82385126562907</v>
       </c>
       <c r="G46" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J46" t="n">
         <v>52.22830032617343</v>
@@ -26070,7 +26070,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>85.70460463370401</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S46" t="n">
         <v>213.8779974765521</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>641193.6494681188</v>
+        <v>641193.6494681191</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>641193.649468119</v>
+        <v>641193.6494681189</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>641193.6494681189</v>
+        <v>641193.649468119</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>641193.6494681191</v>
+        <v>641193.649468119</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>641193.649468119</v>
+        <v>641193.6494681189</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>641193.649468119</v>
+        <v>641193.6494681191</v>
       </c>
     </row>
   </sheetData>
@@ -26328,34 +26328,34 @@
         <v>325370.8721489956</v>
       </c>
       <c r="G2" t="n">
+        <v>325370.8721489954</v>
+      </c>
+      <c r="H2" t="n">
         <v>325370.8721489955</v>
-      </c>
-      <c r="H2" t="n">
-        <v>325370.8721489958</v>
       </c>
       <c r="I2" t="n">
         <v>325370.8721489955</v>
       </c>
       <c r="J2" t="n">
-        <v>325370.8721489956</v>
+        <v>325370.8721489955</v>
       </c>
       <c r="K2" t="n">
-        <v>325370.8721489959</v>
+        <v>325370.8721489953</v>
       </c>
       <c r="L2" t="n">
         <v>325370.8721489955</v>
       </c>
       <c r="M2" t="n">
-        <v>325370.8721489957</v>
+        <v>325370.8721489956</v>
       </c>
       <c r="N2" t="n">
+        <v>325370.8721489956</v>
+      </c>
+      <c r="O2" t="n">
         <v>325370.8721489954</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>325370.8721489955</v>
-      </c>
-      <c r="P2" t="n">
-        <v>325370.8721489956</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154777</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327802</v>
+        <v>369435.2991327801</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>92014.24528109308</v>
+        <v>92014.24528109307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>295860.2172754402</v>
       </c>
       <c r="D4" t="n">
-        <v>295860.2172754402</v>
+        <v>295860.2172754403</v>
       </c>
       <c r="E4" t="n">
         <v>18029.85379262113</v>
@@ -26438,13 +26438,13 @@
         <v>18029.85379262113</v>
       </c>
       <c r="I4" t="n">
-        <v>18029.85379262113</v>
+        <v>18029.85379262112</v>
       </c>
       <c r="J4" t="n">
         <v>18029.85379262113</v>
       </c>
       <c r="K4" t="n">
-        <v>18029.85379262113</v>
+        <v>18029.85379262112</v>
       </c>
       <c r="L4" t="n">
         <v>18029.85379262113</v>
@@ -26453,13 +26453,13 @@
         <v>18029.85379262113</v>
       </c>
       <c r="N4" t="n">
-        <v>18029.85379262112</v>
+        <v>18029.85379262113</v>
       </c>
       <c r="O4" t="n">
         <v>18029.85379262113</v>
       </c>
       <c r="P4" t="n">
-        <v>18029.85379262112</v>
+        <v>18029.85379262113</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376168</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
         <v>48281.26876376167</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67714.14434782026</v>
+        <v>67714.14434782037</v>
       </c>
       <c r="C6" t="n">
         <v>148483.575879368</v>
       </c>
       <c r="D6" t="n">
-        <v>148483.5758793681</v>
+        <v>148483.575879368</v>
       </c>
       <c r="E6" t="n">
-        <v>-106230.3187967441</v>
+        <v>-113199.2433704763</v>
       </c>
       <c r="F6" t="n">
-        <v>263204.9803360361</v>
+        <v>256236.0557623038</v>
       </c>
       <c r="G6" t="n">
-        <v>263204.980336036</v>
+        <v>256236.0557623036</v>
       </c>
       <c r="H6" t="n">
-        <v>263204.9803360362</v>
+        <v>256236.0557623038</v>
       </c>
       <c r="I6" t="n">
-        <v>263204.980336036</v>
+        <v>256236.0557623038</v>
       </c>
       <c r="J6" t="n">
-        <v>200145.0377369299</v>
+        <v>193176.1131631974</v>
       </c>
       <c r="K6" t="n">
-        <v>263204.9803360364</v>
+        <v>256236.0557623036</v>
       </c>
       <c r="L6" t="n">
-        <v>263204.980336036</v>
+        <v>256236.0557623038</v>
       </c>
       <c r="M6" t="n">
-        <v>171190.735054943</v>
+        <v>164221.8104812107</v>
       </c>
       <c r="N6" t="n">
-        <v>263204.9803360359</v>
+        <v>256236.0557623038</v>
       </c>
       <c r="O6" t="n">
-        <v>263204.980336036</v>
+        <v>256236.0557623036</v>
       </c>
       <c r="P6" t="n">
-        <v>263204.9803360361</v>
+        <v>256236.0557623038</v>
       </c>
     </row>
   </sheetData>
@@ -26752,7 +26752,7 @@
         <v>322.6158759445108</v>
       </c>
       <c r="G3" t="n">
-        <v>322.6158759445108</v>
+        <v>322.6158759445107</v>
       </c>
       <c r="H3" t="n">
         <v>322.6158759445108</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>241.0142888776591</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793819</v>
+        <v>369.2326177793818</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>162.9782053421101</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,19 +27390,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640523</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.2884486374759</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.7168118008099</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>305.4078241810982</v>
       </c>
     </row>
     <row r="3">
@@ -27457,31 +27457,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>1.702712241397705</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27526,7 +27526,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>60.23598749168875</v>
       </c>
     </row>
     <row r="4">
@@ -27560,10 +27560,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>320.3175739611883</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27630,7 +27630,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>342.8322390905863</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27639,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27660,19 +27660,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>21.38504638574766</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>159.0784851959187</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>14.95552117266971</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,19 +27864,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>165.8617568640524</v>
+        <v>334.4055473171626</v>
       </c>
       <c r="G8" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>18.51256717168616</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.09554557783014</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27943,16 +27943,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>85.5626750829564</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,16 +27982,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -28016,7 +28016,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>18.14994616795082</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>133.416483154574</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H14" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I14" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J14" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K14" t="n">
         <v>164.9766803203078</v>
@@ -32010,7 +32010,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N14" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O14" t="n">
         <v>218.5211886152591</v>
@@ -32022,13 +32022,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R14" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S14" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T14" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U14" t="n">
         <v>0.1037558596002446</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H15" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I15" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J15" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K15" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L15" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M15" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N15" t="n">
         <v>180.479234222958</v>
@@ -32098,10 +32098,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R15" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S15" t="n">
         <v>12.88941730778304</v>
@@ -32110,7 +32110,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,40 +32147,40 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H16" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I16" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J16" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K16" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L16" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M16" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N16" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O16" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P16" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R16" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S16" t="n">
         <v>10.13860056042011</v>
@@ -32189,7 +32189,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H17" t="n">
-        <v>13.28237121413757</v>
+        <v>13.28237121413756</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548041</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
       </c>
       <c r="L17" t="n">
-        <v>204.6681601733202</v>
+        <v>204.6681601733201</v>
       </c>
       <c r="M17" t="n">
-        <v>227.7327635253933</v>
+        <v>227.7327635253932</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O17" t="n">
-        <v>218.5211886152591</v>
+        <v>218.521188615259</v>
       </c>
       <c r="P17" t="n">
-        <v>186.5027788167461</v>
+        <v>186.502778816746</v>
       </c>
       <c r="Q17" t="n">
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517336</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5542081330072</v>
+        <v>29.55420813300719</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500886</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806458</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847292</v>
+        <v>6.70188829084729</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472364</v>
       </c>
       <c r="K18" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,19 +32335,19 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876454</v>
       </c>
       <c r="R18" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858958</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
       </c>
       <c r="T18" t="n">
-        <v>2.797018773518918</v>
+        <v>2.797018773518917</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214776</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704291</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815273</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L19" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223817</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526552</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613036</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188941</v>
       </c>
       <c r="P19" t="n">
-        <v>70.36199366501262</v>
+        <v>70.36199366501259</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762111</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576312</v>
+        <v>26.1583298757631</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
       </c>
       <c r="T19" t="n">
-        <v>2.485728880228197</v>
+        <v>2.485728880228196</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K21" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R21" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L22" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P22" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.296948245003058</v>
+        <v>1.296948245003057</v>
       </c>
       <c r="H41" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I41" t="n">
-        <v>50.00059721548043</v>
+        <v>50.00059721548042</v>
       </c>
       <c r="J41" t="n">
-        <v>110.0768611093284</v>
+        <v>110.0768611093283</v>
       </c>
       <c r="K41" t="n">
         <v>164.9766803203078</v>
@@ -34143,7 +34143,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N41" t="n">
-        <v>231.4177177265083</v>
+        <v>231.4177177265082</v>
       </c>
       <c r="O41" t="n">
         <v>218.5211886152591</v>
@@ -34155,13 +34155,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R41" t="n">
-        <v>81.46942519517339</v>
+        <v>81.46942519517337</v>
       </c>
       <c r="S41" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T41" t="n">
-        <v>5.677390942500888</v>
+        <v>5.677390942500887</v>
       </c>
       <c r="U41" t="n">
         <v>0.1037558596002446</v>
@@ -34201,25 +34201,25 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.693928487880646</v>
+        <v>0.6939284878806459</v>
       </c>
       <c r="H42" t="n">
-        <v>6.701888290847292</v>
+        <v>6.701888290847291</v>
       </c>
       <c r="I42" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J42" t="n">
-        <v>65.56102437472367</v>
+        <v>65.56102437472366</v>
       </c>
       <c r="K42" t="n">
-        <v>112.054233062727</v>
+        <v>112.0542330627269</v>
       </c>
       <c r="L42" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M42" t="n">
-        <v>175.8256523897584</v>
+        <v>175.8256523897583</v>
       </c>
       <c r="N42" t="n">
         <v>180.479234222958</v>
@@ -34231,10 +34231,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.57936276876457</v>
+        <v>88.57936276876455</v>
       </c>
       <c r="R42" t="n">
-        <v>43.0844371685896</v>
+        <v>43.08443716858959</v>
       </c>
       <c r="S42" t="n">
         <v>12.88941730778304</v>
@@ -34243,7 +34243,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04565318999214778</v>
+        <v>0.04565318999214777</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,40 +34280,40 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5817663336704293</v>
+        <v>0.5817663336704292</v>
       </c>
       <c r="H43" t="n">
-        <v>5.172431584815275</v>
+        <v>5.172431584815274</v>
       </c>
       <c r="I43" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J43" t="n">
-        <v>41.13087979049935</v>
+        <v>41.13087979049934</v>
       </c>
       <c r="K43" t="n">
-        <v>67.59067040280077</v>
+        <v>67.59067040280075</v>
       </c>
       <c r="L43" t="n">
-        <v>86.4927874622382</v>
+        <v>86.49278746223818</v>
       </c>
       <c r="M43" t="n">
-        <v>91.19451719526556</v>
+        <v>91.19451719526555</v>
       </c>
       <c r="N43" t="n">
-        <v>89.02611540613039</v>
+        <v>89.02611540613037</v>
       </c>
       <c r="O43" t="n">
-        <v>82.23002687188944</v>
+        <v>82.23002687188942</v>
       </c>
       <c r="P43" t="n">
-        <v>70.36199366501262</v>
+        <v>70.3619936650126</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.71499726762114</v>
+        <v>48.71499726762113</v>
       </c>
       <c r="R43" t="n">
-        <v>26.15832987576312</v>
+        <v>26.15832987576311</v>
       </c>
       <c r="S43" t="n">
         <v>10.13860056042011</v>
@@ -34322,7 +34322,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03173270910929618</v>
+        <v>0.03173270910929617</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34716,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.56571241621356</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M3" t="n">
-        <v>99.8112771299743</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35035,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,10 +35254,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35269,10 +35269,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
-        <v>226.3322895077438</v>
+        <v>385.0071659263357</v>
       </c>
       <c r="P12" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K14" t="n">
         <v>269.032241846492</v>
@@ -35655,7 +35655,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M14" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N14" t="n">
         <v>439.3515785419015</v>
@@ -35725,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L15" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M15" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N15" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O15" t="n">
         <v>416.3693146658877</v>
@@ -35746,7 +35746,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,13 +35807,13 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L16" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M16" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N16" t="n">
         <v>133.158287785359</v>
@@ -35822,7 +35822,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P16" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471585</v>
+        <v>98.1275717547158</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
       </c>
       <c r="L17" t="n">
-        <v>386.5629597537834</v>
+        <v>386.5629597537833</v>
       </c>
       <c r="M17" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N17" t="n">
-        <v>439.3515785419015</v>
+        <v>439.3515785419014</v>
       </c>
       <c r="O17" t="n">
         <v>369.2231584563177</v>
       </c>
       <c r="P17" t="n">
-        <v>277.0684912329592</v>
+        <v>277.0684912329591</v>
       </c>
       <c r="Q17" t="n">
         <v>130.0651205780292</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.81443304846582</v>
+        <v>64.81443304846579</v>
       </c>
       <c r="K18" t="n">
-        <v>48.64100594280286</v>
+        <v>207.3158823613949</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -35983,7 +35983,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N19" t="n">
-        <v>133.158287785359</v>
+        <v>133.1582877853589</v>
       </c>
       <c r="O19" t="n">
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990608</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>238.6780311009465</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
         <v>528.4798964831782</v>
@@ -36217,10 +36217,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P21" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36451,13 +36451,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O24" t="n">
-        <v>416.3693146658877</v>
+        <v>291.1467225562099</v>
       </c>
       <c r="P24" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,7 +36682,7 @@
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>499.3966822177399</v>
+        <v>309.3596570595964</v>
       </c>
       <c r="N27" t="n">
         <v>528.4798964831782</v>
@@ -36691,10 +36691,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>238.6780311009465</v>
@@ -36928,10 +36928,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P30" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>64.8144330484658</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K33" t="n">
         <v>238.6780311009465</v>
@@ -37159,7 +37159,7 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N33" t="n">
-        <v>338.4428713250347</v>
+        <v>528.4798964831782</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>238.6780311009465</v>
@@ -37396,16 +37396,16 @@
         <v>499.3966822177399</v>
       </c>
       <c r="N36" t="n">
-        <v>528.4798964831782</v>
+        <v>403.2573043735003</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
       </c>
       <c r="P36" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K39" t="n">
         <v>238.6780311009465</v>
@@ -37642,7 +37642,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>98.12757175471585</v>
+        <v>98.12757175471583</v>
       </c>
       <c r="K41" t="n">
         <v>269.032241846492</v>
@@ -37788,7 +37788,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M41" t="n">
-        <v>446.9000637909531</v>
+        <v>446.900063790953</v>
       </c>
       <c r="N41" t="n">
         <v>439.3515785419015</v>
@@ -37858,16 +37858,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>64.81443304846582</v>
+        <v>33.45228430891415</v>
       </c>
       <c r="K42" t="n">
-        <v>238.6780311009466</v>
+        <v>238.6780311009465</v>
       </c>
       <c r="L42" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M42" t="n">
-        <v>499.39668221774</v>
+        <v>499.3966822177399</v>
       </c>
       <c r="N42" t="n">
         <v>528.4798964831782</v>
@@ -37876,10 +37876,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P42" t="n">
-        <v>126.9612417926717</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>158.6748764185921</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,13 +37940,13 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>45.32117857691792</v>
+        <v>45.3211785769179</v>
       </c>
       <c r="L43" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M43" t="n">
-        <v>130.7783941571062</v>
+        <v>130.7783941571061</v>
       </c>
       <c r="N43" t="n">
         <v>133.158287785359</v>
@@ -37955,7 +37955,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P43" t="n">
-        <v>67.64055292990611</v>
+        <v>67.64055292990609</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>98.12757175471535</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K44" t="n">
         <v>269.032241846492</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>33.45228430891401</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>238.6780311009466</v>
@@ -38116,7 +38116,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
